--- a/resouce/excel/excel1.xlsx
+++ b/resouce/excel/excel1.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\workspace1\python\docmake\resouce\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF635B5-B1FD-4450-AE67-65BFFA18A0F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EF0A6F-BDA3-402C-95D2-07186E8DF2DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +42,62 @@
   </si>
   <si>
     <t>系统二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300万</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -402,4 +460,136 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADF7CAC-19F0-496D-8A30-D5C545280741}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FEFB71-2E71-42BD-B88E-91520109355C}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>